--- a/biology/Médecine/Phéniramine/Phéniramine.xlsx
+++ b/biology/Médecine/Phéniramine/Phéniramine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9niramine</t>
+          <t>Phéniramine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phéniramine est un antihistaminique présentant des propriétés anticholinergiques. Elle permet de traiter les problèmes allergiques, comme l'urticaire ou les rhinites allergiques, en diminuant les rhinorrhées et les larmoiements.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9niramine</t>
+          <t>Phéniramine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Dérivés chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dérivés de la phéniramine incluent la chlorphéniramine, la dexchlorphéniramine, dexbromphéniramine, la triprolidine, et la bromphéniramine.
 Deux autres dérivés halogénés, l'iodophéniramine et la fluorphéniramine, sont actuellement testés en polythérapie pour le traitement du paludisme et de certains cancers.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9niramine</t>
+          <t>Phéniramine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise de phéniramine peut causer des somnolences, de la bradycardie, et une surdose peut entraîner des troubles du sommeil, nausée, hallucinations, vision trouble, acouphènes, confusion, tremblements[2]…
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise de phéniramine peut causer des somnolences, de la bradycardie, et une surdose peut entraîner des troubles du sommeil, nausée, hallucinations, vision trouble, acouphènes, confusion, tremblements…
 Les personnes traitées au cortisol sur le long terme devraient éviter la phéniramine, car elle peut causer une baisse des niveaux d'adrénaline (épinéphrine) et entraîner une perte de connaissance.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ph%C3%A9niramine</t>
+          <t>Phéniramine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>stéréoisomérie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phéniramine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S ) qui est utilisé[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phéniramine contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S ) qui est utilisé
 </t>
         </is>
       </c>
